--- a/biology/Médecine/Nafsiah_Mboi/Nafsiah_Mboi.xlsx
+++ b/biology/Médecine/Nafsiah_Mboi/Nafsiah_Mboi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nafsiah Mboi, née le 14 juillet 1940 à Sengkang (Sulawesi du Sud), est un médecin et une femme politique indonésienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée de l'université d'Indonésie et de l'Institut de médecine tropicale d'Anvers, elle travaille à l'amélioration de la santé publique dans la province des Petites îles de la Sonde orientales (East Nusa Tenggara), dont son mari, Aloysius Mboi, est gouverneur de 1978 à 1988. Elle se consacre notamment à la prévention du sida et à la défense des droits des enfants.
 De 1982 à 1987, elle siège à l'Assemblée délibérative du peuple. 
@@ -544,7 +558,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1987, elle reçoit, avec son mari, le prix Ramon Magsaysay.
 </t>
